--- a/Data/Output/FinalReport/FinalReport_2022-11-17.xlsx
+++ b/Data/Output/FinalReport/FinalReport_2022-11-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <x:si>
     <x:t>Material ID</x:t>
   </x:si>
@@ -170,6 +170,67 @@
   </x:si>
   <x:si>
     <x:t>CheckItemAvailability</x:t>
+  </x:si>
+  <x:si>
+    <x:t>710644988081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SLIM FIT HDN PANT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16641</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LODEN FREY VERKAUFSHAUS GmbH &amp; CO K</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RL Germany GmbH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Region Germany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25124934</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PF/TR 2022 EU Mkt 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/03/2021 00:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34  32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Failed</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> There is not J0 rejection assigned to the transaction item: 25124934
+   </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rejection</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -215,14 +276,21 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -520,7 +588,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AA2"/>
+  <x:dimension ref="A1:AA3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -690,6 +758,89 @@
       </x:c>
       <x:c r="AA2" s="0" t="s">
         <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:27">
+      <x:c r="A3" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="M3" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="N3" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="O3" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="P3" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="Q3" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="R3" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="S3" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="T3" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="U3" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="V3" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="W3" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="X3" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="Y3" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="Z3" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="AA3" s="0" t="s">
+        <x:v>71</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
